--- a/results/mp/logistic/corona/confidence/168/masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,85 +40,94 @@
     <t>name</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>stress</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>saudi</t>
@@ -127,36 +136,27 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>no</t>
+    <t>cut</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -166,277 +166,268 @@
     <t>oil</t>
   </si>
   <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>:</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>:</t>
+    <t>are</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>is</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>'</t>
   </si>
 </sst>
 </file>
@@ -794,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,10 +793,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -863,13 +854,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -881,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -913,13 +904,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -931,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -955,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -963,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -981,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1013,13 +1004,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.791095890410959</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1031,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1055,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1063,13 +1054,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1081,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1113,13 +1104,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1131,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1155,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1163,13 +1154,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7631578947368421</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1181,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1205,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1213,13 +1204,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1231,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K10">
-        <v>0.835509138381201</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L10">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M10">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1255,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1263,13 +1254,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7567567567567568</v>
+        <v>0.72</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1281,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1305,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1313,13 +1304,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7391304347826086</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1331,31 +1322,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L12">
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <v>27</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>6</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L12">
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>15</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1363,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7333333333333333</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1381,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K13">
-        <v>0.8297872340425532</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1405,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1413,13 +1404,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1431,31 +1422,31 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L14">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <v>29</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>7</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14">
-        <v>0.8046875</v>
-      </c>
-      <c r="L14">
-        <v>103</v>
-      </c>
-      <c r="M14">
-        <v>103</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1463,13 +1454,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6923076923076923</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1484,16 +1475,16 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K15">
-        <v>0.7875</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L15">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="M15">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1505,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1513,7 +1504,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6842105263157895</v>
+        <v>0.65</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -1531,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1555,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1563,13 +1554,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6842105263157895</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1581,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K17">
-        <v>0.7758620689655172</v>
+        <v>0.78125</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1605,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1613,13 +1604,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.68</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1631,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K18">
-        <v>0.7746478873239436</v>
+        <v>0.775</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1655,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1663,13 +1654,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5769230769230769</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1681,31 +1672,31 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="L19">
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <v>37</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>11</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19">
-        <v>0.7358490566037735</v>
-      </c>
-      <c r="L19">
-        <v>78</v>
-      </c>
-      <c r="M19">
-        <v>78</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1713,13 +1704,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5666666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1731,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K20">
-        <v>0.7272727272727273</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1755,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1763,13 +1754,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5661375661375662</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C21">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1781,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K21">
-        <v>0.717948717948718</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1813,13 +1804,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.559322033898305</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1831,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1855,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1863,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5387596899224806</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C23">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1881,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K23">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1905,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1913,13 +1904,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5098039215686274</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1931,19 +1922,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K24">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1955,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1963,13 +1954,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4899328859060403</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C25">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1981,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K25">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2005,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2013,13 +2004,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4838709677419355</v>
+        <v>0.5302013422818792</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2031,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K26">
-        <v>0.6976744186046512</v>
+        <v>0.725</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2055,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2063,37 +2054,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4814814814814815</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>13</v>
       </c>
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>14</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K27">
-        <v>0.696969696969697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2105,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2113,13 +2104,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.475</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2131,19 +2122,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K28">
-        <v>0.6944444444444444</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2155,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2163,7 +2154,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4594594594594595</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C29">
         <v>17</v>
@@ -2181,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K29">
-        <v>0.6785714285714286</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2205,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2234,16 +2225,16 @@
         <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K30">
-        <v>0.6785714285714286</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2255,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2263,13 +2254,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.44</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2281,19 +2272,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K31">
-        <v>0.6666666666666666</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2305,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2313,13 +2304,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4222222222222222</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="C32">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D32">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2331,19 +2322,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2355,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2363,13 +2354,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4102564102564102</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2381,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K33">
-        <v>0.638235294117647</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2405,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>123</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2413,13 +2404,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4102564102564102</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2431,19 +2422,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K34">
-        <v>0.6363636363636364</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2455,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2463,13 +2454,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2481,31 +2472,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K35">
-        <v>0.6307692307692307</v>
+        <v>0.608843537414966</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2513,7 +2504,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3888888888888889</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C36">
         <v>14</v>
@@ -2531,19 +2522,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K36">
-        <v>0.6285714285714286</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2555,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2563,13 +2554,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3818181818181818</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2581,19 +2572,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K37">
-        <v>0.6067796610169491</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L37">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="M37">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2605,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>116</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2613,13 +2604,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.375</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2631,19 +2622,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K38">
-        <v>0.5941422594142259</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L38">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="M38">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2655,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2684,16 +2675,16 @@
         <v>63</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K39">
-        <v>0.5851063829787234</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L39">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="M39">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2705,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2713,13 +2704,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2658730158730159</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C40">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2731,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K40">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2763,13 +2754,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2337662337662338</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2781,19 +2772,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K41">
-        <v>0.5652173913043478</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2805,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2813,13 +2804,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2831,19 +2822,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K42">
-        <v>0.5600000000000001</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2855,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2863,13 +2854,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1796246648793566</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="C43">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D43">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2881,19 +2872,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K43">
-        <v>0.5571428571428572</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2905,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2913,13 +2904,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2931,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K44">
         <v>0.5555555555555556</v>
@@ -2963,49 +2954,49 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01904454486765655</v>
+        <v>0.05957446808510639</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F45">
-        <v>0.87</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3039</v>
+        <v>221</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K45">
-        <v>0.5357142857142857</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>18</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>15</v>
-      </c>
-      <c r="M45">
-        <v>15</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3013,28 +3004,28 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01894918173987941</v>
+        <v>0.01896551724137931</v>
       </c>
       <c r="C46">
         <v>22</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K46">
         <v>0.5357142857142857</v>
@@ -3063,37 +3054,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.01853411962931761</v>
+        <v>0.01615508885298869</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D47">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E47">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="F47">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2330</v>
+        <v>3045</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K47">
-        <v>0.5280898876404494</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3105,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3113,37 +3104,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01838755304101839</v>
+        <v>0.01601830663615561</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <v>0.07000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="F48">
-        <v>0.9299999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>694</v>
+        <v>860</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K48">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3155,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3163,37 +3154,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.01836969001148106</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E49">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="F49">
-        <v>0.5900000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>855</v>
+        <v>2331</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K49">
-        <v>0.5151515151515151</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3205,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3213,37 +3204,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01498829039812646</v>
+        <v>0.01340694006309148</v>
       </c>
       <c r="C50">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E50">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
       <c r="F50">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>2103</v>
+        <v>1251</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K50">
-        <v>0.5098039215686274</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3255,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3263,37 +3254,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01420678768745067</v>
+        <v>0.01078293483356775</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D51">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E51">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="F51">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1249</v>
+        <v>2110</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K51">
-        <v>0.4285714285714285</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3305,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3313,37 +3304,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.01233480176211454</v>
+        <v>0.009598603839441536</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E52">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="F52">
-        <v>0.74</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1121</v>
+        <v>2270</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K52">
-        <v>0.4222222222222222</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3355,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3363,37 +3354,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0108837614279495</v>
+        <v>0.009375</v>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D53">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E53">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="F53">
-        <v>0.6799999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2272</v>
+        <v>5072</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K53">
-        <v>0.4193548387096774</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3405,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3413,37 +3404,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01030927835051546</v>
+        <v>0.008894536213468869</v>
       </c>
       <c r="C54">
         <v>14</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E54">
-        <v>0.26</v>
+        <v>0.59</v>
       </c>
       <c r="F54">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1344</v>
+        <v>1560</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K54">
-        <v>0.3823529411764706</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3455,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3463,37 +3454,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.009923045767517213</v>
+        <v>0.008886810102899906</v>
       </c>
       <c r="C55">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E55">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="F55">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>4889</v>
+        <v>4238</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K55">
-        <v>0.3717948717948718</v>
+        <v>0.296875</v>
       </c>
       <c r="L55">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3505,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3513,37 +3504,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.00857365549493375</v>
+        <v>0.008257638315441783</v>
       </c>
       <c r="C56">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E56">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="F56">
-        <v>0.5700000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>5088</v>
+        <v>2402</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K56">
-        <v>0.3698630136986301</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3555,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3563,37 +3554,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.008385744234800839</v>
+        <v>0.007875605815831988</v>
       </c>
       <c r="C57">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D57">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E57">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="F57">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>4257</v>
+        <v>4913</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K57">
-        <v>0.3559322033898305</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3605,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3613,239 +3604,167 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.007243614182234084</v>
+        <v>0.005362776025236593</v>
       </c>
       <c r="C58">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>48</v>
+      </c>
+      <c r="E58">
+        <v>0.65</v>
+      </c>
+      <c r="F58">
+        <v>0.35</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>3153</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K58">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K59">
+        <v>0.1743119266055046</v>
+      </c>
+      <c r="L59">
         <v>19</v>
       </c>
-      <c r="D58">
-        <v>69</v>
-      </c>
-      <c r="E58">
-        <v>0.72</v>
-      </c>
-      <c r="F58">
-        <v>0.28</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>2604</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="M59">
+        <v>19</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K60">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L60">
+        <v>14</v>
+      </c>
+      <c r="M60">
+        <v>14</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K58">
-        <v>0.34375</v>
-      </c>
-      <c r="L58">
-        <v>22</v>
-      </c>
-      <c r="M58">
-        <v>22</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.006989748369058714</v>
-      </c>
-      <c r="C59">
-        <v>15</v>
-      </c>
-      <c r="D59">
-        <v>27</v>
-      </c>
-      <c r="E59">
-        <v>0.44</v>
-      </c>
-      <c r="F59">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>2131</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K59">
-        <v>0.2954545454545455</v>
-      </c>
-      <c r="L59">
+      <c r="K61">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L61">
         <v>13</v>
       </c>
-      <c r="M59">
+      <c r="M61">
         <v>13</v>
       </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.006229235880398671</v>
-      </c>
-      <c r="C60">
-        <v>15</v>
-      </c>
-      <c r="D60">
-        <v>52</v>
-      </c>
-      <c r="E60">
-        <v>0.71</v>
-      </c>
-      <c r="F60">
-        <v>0.29</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>2393</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K60">
-        <v>0.2280701754385965</v>
-      </c>
-      <c r="L60">
-        <v>13</v>
-      </c>
-      <c r="M60">
-        <v>13</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.005689001264222503</v>
-      </c>
-      <c r="C61">
-        <v>18</v>
-      </c>
-      <c r="D61">
-        <v>55</v>
-      </c>
-      <c r="E61">
-        <v>0.67</v>
-      </c>
-      <c r="F61">
-        <v>0.33</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>3146</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K61">
-        <v>0.1962616822429906</v>
-      </c>
-      <c r="L61">
-        <v>21</v>
-      </c>
-      <c r="M61">
-        <v>23</v>
-      </c>
       <c r="N61">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K62">
-        <v>0.1532258064516129</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>105</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K63">
-        <v>0.0979020979020979</v>
+        <v>0.05484460694698354</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3857,47 +3776,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>129</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K64">
-        <v>0.0918918918918919</v>
+        <v>0.05425709515859766</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>168</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K65">
-        <v>0.0487012987012987</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3909,21 +3828,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>293</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K66">
-        <v>0.04765886287625418</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="L66">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M66">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>0.93</v>
@@ -3935,423 +3854,449 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1139</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K67">
-        <v>0.03614457831325301</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M67">
         <v>16</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K68">
-        <v>0.03588516746411483</v>
+        <v>0.02329450915141431</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>403</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K69">
-        <v>0.03473491773308958</v>
+        <v>0.02113459399332592</v>
       </c>
       <c r="L69">
         <v>19</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>528</v>
+        <v>880</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K70">
-        <v>0.01883948756593821</v>
+        <v>0.01650943396226415</v>
       </c>
       <c r="L70">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N70">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="O70">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>2604</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K71">
-        <v>0.01734104046242774</v>
+        <v>0.01545893719806763</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N71">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="O71">
-        <v>0.09999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="K72">
-        <v>0.01730920535011802</v>
+        <v>0.01540774145058249</v>
       </c>
       <c r="L72">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M72">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N72">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="O72">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1249</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K73">
-        <v>0.01704545454545454</v>
+        <v>0.01521298174442191</v>
       </c>
       <c r="L73">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N73">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="O73">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1557</v>
+        <v>971</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K74">
-        <v>0.01683501683501683</v>
+        <v>0.01457399103139013</v>
       </c>
       <c r="L74">
+        <v>13</v>
+      </c>
+      <c r="M74">
         <v>15</v>
       </c>
-      <c r="M74">
-        <v>18</v>
-      </c>
       <c r="N74">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="O74">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="K75">
-        <v>0.01633165829145729</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="L75">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N75">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="O75">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>783</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="K76">
-        <v>0.01522633744855967</v>
+        <v>0.01254705144291092</v>
       </c>
       <c r="L76">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M76">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="N76">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="O76">
-        <v>0.29</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>2393</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="K77">
-        <v>0.01462599247806101</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="L77">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M77">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="N77">
-        <v>0.97</v>
+        <v>0.58</v>
       </c>
       <c r="O77">
-        <v>0.03000000000000003</v>
+        <v>0.42</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>2358</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="K78">
-        <v>0.01414141414141414</v>
+        <v>0.009736180904522614</v>
       </c>
       <c r="L78">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M78">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N78">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="O78">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>976</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K79">
-        <v>0.0117242773398019</v>
+        <v>0.009484536082474227</v>
       </c>
       <c r="L79">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M79">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="N79">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="O79">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>4889</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K80">
-        <v>0.01162425384857053</v>
+        <v>0.008876336493847085</v>
       </c>
       <c r="L80">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M80">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="N80">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="O80">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>3146</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K81">
-        <v>0.008154706430568499</v>
+        <v>0.008794215360562829</v>
       </c>
       <c r="L81">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M81">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="N81">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="O81">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>4257</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K82">
-        <v>0.006444053895723492</v>
+        <v>0.007433318758198513</v>
       </c>
       <c r="L82">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M82">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="N82">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="O82">
-        <v>0.5700000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>5088</v>
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K83">
+        <v>0.006517690875232775</v>
+      </c>
+      <c r="L83">
+        <v>14</v>
+      </c>
+      <c r="M83">
+        <v>24</v>
+      </c>
+      <c r="N83">
+        <v>0.58</v>
+      </c>
+      <c r="O83">
+        <v>0.42</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>2134</v>
       </c>
     </row>
   </sheetData>
